--- a/artfynd/A 30068-2022 artfynd.xlsx
+++ b/artfynd/A 30068-2022 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,6 +1389,107 @@
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131180100</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91804</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Acksjön, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>473246</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7012290</v>
+      </c>
+      <c r="S8" t="n">
+        <v>100</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2010-06-13</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2010-06-13</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Pontus Wallén</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Pontus Wallén</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>LstZ naturvärdesinventeringar mellan åren xxxx-xxxx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 30068-2022 artfynd.xlsx
+++ b/artfynd/A 30068-2022 artfynd.xlsx
@@ -1394,7 +1394,7 @@
         <v>131180100</v>
       </c>
       <c r="B8" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
